--- a/scripts_graf/info_tecnico.xlsx
+++ b/scripts_graf/info_tecnico.xlsx
@@ -12,10 +12,6 @@
     <sheet name="parche_EpocasMOR" sheetId="3" r:id="rId3"/>
     <sheet name="EpocasTesis" sheetId="4" r:id="rId4"/>
     <sheet name="Epocas_todas" sheetId="5" r:id="rId5"/>
-    <sheet name="Heuristico" sheetId="6" r:id="rId6"/>
-    <sheet name="General_old" sheetId="7" r:id="rId7"/>
-    <sheet name="horas_feo" sheetId="8" r:id="rId8"/>
-    <sheet name="Tesis_graf" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
   <si>
     <t>N_sujeto</t>
   </si>
@@ -63,24 +59,6 @@
   </si>
   <si>
     <t>Dur_epoca</t>
-  </si>
-  <si>
-    <t>hh_0</t>
-  </si>
-  <si>
-    <t>mm_0</t>
-  </si>
-  <si>
-    <t>ss_0</t>
-  </si>
-  <si>
-    <t>hh_f</t>
-  </si>
-  <si>
-    <t>mm_f</t>
-  </si>
-  <si>
-    <t>ss_f</t>
   </si>
   <si>
     <t>VCR</t>
@@ -206,126 +184,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>Sujeto</t>
-  </si>
-  <si>
-    <t>Fr_muest</t>
-  </si>
-  <si>
-    <t>Dur_epo</t>
-  </si>
-  <si>
-    <t>FinMOR</t>
-  </si>
-  <si>
-    <t>InicioMOR</t>
-  </si>
-  <si>
-    <t>PreMOR</t>
-  </si>
-  <si>
-    <t>seg_0</t>
-  </si>
-  <si>
-    <t>seg_f</t>
-  </si>
-  <si>
-    <t>MOR(s)</t>
-  </si>
-  <si>
-    <t>MOR(hms)</t>
-  </si>
-  <si>
-    <t>total(s)</t>
-  </si>
-  <si>
-    <t>total(hms)</t>
-  </si>
-  <si>
-    <t>Fr muestreo [Hz]</t>
-  </si>
-  <si>
-    <t>0,36,30</t>
-  </si>
-  <si>
-    <t>7,10,30</t>
-  </si>
-  <si>
-    <t>1,3,30</t>
-  </si>
-  <si>
-    <t>8,36,0</t>
-  </si>
-  <si>
-    <t>1,25,30</t>
-  </si>
-  <si>
-    <t>7,33,30</t>
-  </si>
-  <si>
-    <t>0,27,30</t>
-  </si>
-  <si>
-    <t>9,6,30</t>
-  </si>
-  <si>
-    <t>0,47,30</t>
-  </si>
-  <si>
-    <t>6,51,0</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Desv std</t>
-  </si>
-  <si>
-    <t>Mediana</t>
-  </si>
-  <si>
-    <t>1,6,0</t>
-  </si>
-  <si>
-    <t>7,52,0</t>
-  </si>
-  <si>
-    <t>0,49,30</t>
-  </si>
-  <si>
-    <t>7,3,0</t>
-  </si>
-  <si>
-    <t>0,19,0</t>
-  </si>
-  <si>
-    <t>3,27,0</t>
-  </si>
-  <si>
-    <t>0,16,30</t>
-  </si>
-  <si>
-    <t>10,3,30</t>
-  </si>
-  <si>
-    <t>0,20,30</t>
-  </si>
-  <si>
-    <t>7,58,30</t>
-  </si>
-  <si>
-    <t>512 *</t>
-  </si>
-  <si>
-    <t>Sueno_t</t>
-  </si>
-  <si>
-    <t>MOR_t</t>
-  </si>
-  <si>
-    <t>MOR_p</t>
-  </si>
-  <si>
     <t>hh_ff</t>
   </si>
   <si>
@@ -336,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -385,26 +243,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF984807"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,12 +491,6 @@
         <bgColor rgb="FFEBF1DE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F2"/>
-        <bgColor rgb="FFDBEEF4"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -809,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1295,88 +1129,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1748,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,16 +1519,12 @@
     <col min="10" max="10" width="17.85546875"/>
     <col min="11" max="11" width="11.5703125" style="1"/>
     <col min="12" max="12" width="10" style="1"/>
-    <col min="13" max="13" width="4.85546875"/>
-    <col min="14" max="14" width="6.140625"/>
-    <col min="15" max="15" width="4.28515625"/>
-    <col min="16" max="16" width="4.5703125"/>
-    <col min="17" max="17" width="6.140625"/>
-    <col min="18" max="18" width="4"/>
-    <col min="19" max="1024" width="8.28515625"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="1018" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1814,39 +1562,21 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D2" s="6">
         <v>59</v>
@@ -1864,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K2" s="8">
         <v>200</v>
@@ -1876,39 +1606,21 @@
         <v>10</v>
       </c>
       <c r="M2" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N2" s="5">
-        <v>53</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>44</v>
-      </c>
-      <c r="R2" s="5">
-        <v>0</v>
-      </c>
-      <c r="S2" s="5">
-        <v>7</v>
-      </c>
-      <c r="T2" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" s="10">
         <v>72</v>
@@ -1926,10 +1638,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K3" s="10">
         <v>512</v>
@@ -1938,39 +1650,21 @@
         <v>30</v>
       </c>
       <c r="M3" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N3" s="9">
-        <v>25</v>
-      </c>
-      <c r="O3" s="9">
-        <v>30</v>
-      </c>
-      <c r="P3" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="9">
         <v>36</v>
       </c>
-      <c r="R3" s="9">
-        <v>30</v>
-      </c>
-      <c r="S3" s="9">
-        <v>8</v>
-      </c>
-      <c r="T3" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6">
         <v>78</v>
@@ -1988,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K4" s="6">
         <v>512</v>
@@ -2000,39 +1694,21 @@
         <v>30</v>
       </c>
       <c r="M4" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N4" s="5">
-        <v>48</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>10</v>
-      </c>
-      <c r="R4" s="5">
-        <v>30</v>
-      </c>
-      <c r="S4" s="5">
-        <v>7</v>
-      </c>
-      <c r="T4" s="5">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D5" s="10">
         <v>65</v>
@@ -2050,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K5" s="8">
         <v>200</v>
@@ -2062,39 +1738,21 @@
         <v>10</v>
       </c>
       <c r="M5" s="9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N5" s="9">
-        <v>11</v>
-      </c>
-      <c r="O5" s="9">
-        <v>30</v>
-      </c>
-      <c r="P5" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>28</v>
-      </c>
-      <c r="R5" s="9">
-        <v>0</v>
-      </c>
-      <c r="S5" s="9">
-        <v>9</v>
-      </c>
-      <c r="T5" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6">
         <v>67</v>
@@ -2112,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K6" s="8">
         <v>200</v>
@@ -2124,39 +1782,21 @@
         <v>10</v>
       </c>
       <c r="M6" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N6" s="5">
-        <v>11</v>
-      </c>
-      <c r="O6" s="5">
-        <v>30</v>
-      </c>
-      <c r="P6" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>23</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
-        <v>6</v>
-      </c>
-      <c r="T6" s="5">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>9</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" s="13">
         <v>68</v>
@@ -2174,10 +1814,10 @@
         <v>1</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K7" s="13">
         <v>512</v>
@@ -2185,40 +1825,22 @@
       <c r="L7" s="13">
         <v>30</v>
       </c>
-      <c r="M7" s="12">
-        <v>1</v>
-      </c>
-      <c r="N7" s="12">
-        <v>17</v>
-      </c>
-      <c r="O7" s="12">
-        <v>0</v>
-      </c>
-      <c r="P7" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>28</v>
-      </c>
-      <c r="R7" s="12">
-        <v>30</v>
-      </c>
-      <c r="S7" s="9">
+      <c r="M7" s="9">
         <v>7</v>
       </c>
-      <c r="T7" s="9">
+      <c r="N7" s="9">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>10</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" s="17">
         <v>63</v>
@@ -2236,10 +1858,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K8" s="17">
         <v>512</v>
@@ -2247,40 +1869,22 @@
       <c r="L8" s="17">
         <v>30</v>
       </c>
-      <c r="M8" s="16">
-        <v>1</v>
-      </c>
-      <c r="N8" s="16">
-        <v>55</v>
-      </c>
-      <c r="O8" s="16">
+      <c r="M8" s="5">
+        <v>7</v>
+      </c>
+      <c r="N8" s="5">
         <v>0</v>
       </c>
-      <c r="P8" s="16">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>6</v>
-      </c>
-      <c r="R8" s="16">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5">
-        <v>7</v>
-      </c>
-      <c r="T8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D9" s="13">
         <v>69</v>
@@ -2298,10 +1902,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K9" s="8">
         <v>200</v>
@@ -2309,40 +1913,22 @@
       <c r="L9" s="13">
         <v>10</v>
       </c>
-      <c r="M9" s="12">
-        <v>1</v>
-      </c>
-      <c r="N9" s="12">
-        <v>50</v>
-      </c>
-      <c r="O9" s="12">
-        <v>30</v>
-      </c>
-      <c r="P9" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>1</v>
-      </c>
-      <c r="R9" s="12">
-        <v>30</v>
-      </c>
-      <c r="S9" s="9">
+      <c r="M9" s="9">
         <v>3</v>
       </c>
-      <c r="T9" s="9">
+      <c r="N9" s="9">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>6</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" s="17">
         <v>65</v>
@@ -2360,10 +1946,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K10" s="17">
         <v>512</v>
@@ -2371,40 +1957,22 @@
       <c r="L10" s="17">
         <v>30</v>
       </c>
-      <c r="M10" s="16">
-        <v>2</v>
-      </c>
-      <c r="N10" s="16">
-        <v>58</v>
-      </c>
-      <c r="O10" s="16">
+      <c r="M10" s="5">
+        <v>10</v>
+      </c>
+      <c r="N10" s="5">
         <v>0</v>
       </c>
-      <c r="P10" s="16">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>9</v>
-      </c>
-      <c r="R10" s="16">
-        <v>30</v>
-      </c>
-      <c r="S10" s="5">
-        <v>10</v>
-      </c>
-      <c r="T10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>83</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D11" s="13">
         <v>73</v>
@@ -2422,10 +1990,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K11" s="13">
         <v>512</v>
@@ -2433,40 +2001,22 @@
       <c r="L11" s="13">
         <v>30</v>
       </c>
-      <c r="M11" s="12">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12">
-        <v>50</v>
-      </c>
-      <c r="O11" s="12">
-        <v>30</v>
-      </c>
-      <c r="P11" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>5</v>
-      </c>
-      <c r="R11" s="12">
-        <v>30</v>
-      </c>
-      <c r="S11" s="9">
+      <c r="M11" s="9">
         <v>7</v>
       </c>
-      <c r="T11" s="9">
+      <c r="N11" s="9">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>31</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D12" s="20">
         <v>71</v>
@@ -2484,10 +2034,10 @@
         <v>-1</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K12" s="20">
         <v>512</v>
@@ -2495,34 +2045,22 @@
       <c r="L12" s="20">
         <v>30</v>
       </c>
-      <c r="M12" s="19">
-        <v>2</v>
-      </c>
-      <c r="N12" s="19">
-        <v>12</v>
-      </c>
-      <c r="O12" s="19">
-        <v>0</v>
-      </c>
-      <c r="P12" s="19">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>25</v>
-      </c>
-      <c r="R12" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M12" s="5">
+        <v>3</v>
+      </c>
+      <c r="N12" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>5</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D13" s="24">
         <v>61</v>
@@ -2540,10 +2078,10 @@
         <v>-1</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K13" s="24">
         <v>512</v>
@@ -2551,34 +2089,22 @@
       <c r="L13" s="24">
         <v>30</v>
       </c>
-      <c r="M13" s="23">
-        <v>1</v>
-      </c>
-      <c r="N13" s="23">
-        <v>53</v>
-      </c>
-      <c r="O13" s="23">
-        <v>0</v>
-      </c>
-      <c r="P13" s="23">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="23">
-        <v>25</v>
-      </c>
-      <c r="R13" s="23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M13" s="9">
+        <v>8</v>
+      </c>
+      <c r="N13" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>25</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" s="20">
         <v>50</v>
@@ -2596,10 +2122,10 @@
         <v>-1</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K14" s="20">
         <v>512</v>
@@ -2607,34 +2133,22 @@
       <c r="L14" s="20">
         <v>30</v>
       </c>
-      <c r="M14" s="19">
-        <v>1</v>
-      </c>
-      <c r="N14" s="19">
-        <v>35</v>
-      </c>
-      <c r="O14" s="19">
-        <v>0</v>
-      </c>
-      <c r="P14" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>50</v>
-      </c>
-      <c r="R14" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M14" s="5">
+        <v>11</v>
+      </c>
+      <c r="N14" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>99</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D15" s="27">
         <v>71</v>
@@ -2652,33 +2166,15 @@
         <v>-1</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K15" s="27">
         <v>512</v>
       </c>
       <c r="L15" s="27">
-        <v>30</v>
-      </c>
-      <c r="M15" s="26">
-        <v>1</v>
-      </c>
-      <c r="N15" s="26">
-        <v>3</v>
-      </c>
-      <c r="O15" s="26">
-        <v>30</v>
-      </c>
-      <c r="P15" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="26">
-        <v>14</v>
-      </c>
-      <c r="R15" s="26">
         <v>30</v>
       </c>
     </row>
@@ -2702,46 +2198,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>43</v>
-      </c>
       <c r="J1" s="31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K1" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="N1" s="35" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3186,7 +2682,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3211,46 +2707,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>43</v>
-      </c>
       <c r="J1" s="31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K1" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="N1" s="35" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4598,46 +4094,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>43</v>
-      </c>
       <c r="J1" s="31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K1" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="N1" s="35" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -10063,46 +9559,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="77" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="78" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="80" t="s">
-        <v>43</v>
-      </c>
       <c r="J1" s="78" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K1" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="82" t="s">
+      <c r="N1" s="83" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="83" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -15795,3064 +15291,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625"/>
-    <col min="2" max="2" width="8.7109375" style="168"/>
-    <col min="3" max="3" width="8.140625" style="168"/>
-    <col min="4" max="4" width="7.7109375" style="168"/>
-    <col min="5" max="5" width="9.85546875" style="168"/>
-    <col min="7" max="7" width="5.5703125"/>
-    <col min="8" max="8" width="4.85546875"/>
-    <col min="9" max="9" width="6.140625"/>
-    <col min="10" max="10" width="4.28515625"/>
-    <col min="11" max="11" width="5.5703125"/>
-    <col min="12" max="12" width="4.5703125"/>
-    <col min="13" max="13" width="6.140625"/>
-    <col min="14" max="14" width="4"/>
-    <col min="15" max="1025" width="8.28515625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="169" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="169" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="169" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="169" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="170">
-        <f>General!K2</f>
-        <v>200</v>
-      </c>
-      <c r="C2" s="170">
-        <f>General!L2</f>
-        <v>10</v>
-      </c>
-      <c r="D2" s="170">
-        <v>980</v>
-      </c>
-      <c r="E2" s="170">
-        <f>EpocasMOR!A2</f>
-        <v>712</v>
-      </c>
-      <c r="F2" s="5">
-        <f t="shared" ref="F2:F15" si="0">E2-10*(30/C2)</f>
-        <v>682</v>
-      </c>
-      <c r="G2" s="5">
-        <f t="shared" ref="G2:G15" si="1">(F2-1)*C2</f>
-        <v>6810</v>
-      </c>
-      <c r="H2" s="5">
-        <f t="shared" ref="H2:H15" si="2">INT(G2/(60*60))</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="5">
-        <f t="shared" ref="I2:I15" si="3">INT((G2-60*60*H2)/60)</f>
-        <v>53</v>
-      </c>
-      <c r="J2" s="5">
-        <f t="shared" ref="J2:J15" si="4">G2-60*60*H2-60*I2</f>
-        <v>30</v>
-      </c>
-      <c r="K2" s="5">
-        <f t="shared" ref="K2:K15" si="5">D2*C2</f>
-        <v>9800</v>
-      </c>
-      <c r="L2" s="5">
-        <f t="shared" ref="L2:L15" si="6">INT(K2/(60*60))</f>
-        <v>2</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" ref="M2:M15" si="7">INT((K2-60*60*L2)/60)</f>
-        <v>43</v>
-      </c>
-      <c r="N2" s="5">
-        <f t="shared" ref="N2:N15" si="8">K2-60*60*L2-60*M2</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="171">
-        <f>General!K3</f>
-        <v>512</v>
-      </c>
-      <c r="C3" s="171">
-        <f>General!L3</f>
-        <v>30</v>
-      </c>
-      <c r="D3" s="171">
-        <v>192</v>
-      </c>
-      <c r="E3" s="171">
-        <f>EpocasMOR!B2</f>
-        <v>183</v>
-      </c>
-      <c r="F3" s="9">
-        <f t="shared" si="0"/>
-        <v>173</v>
-      </c>
-      <c r="G3" s="9">
-        <f t="shared" si="1"/>
-        <v>5160</v>
-      </c>
-      <c r="H3" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I3" s="9">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="J3" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <f t="shared" si="5"/>
-        <v>5760</v>
-      </c>
-      <c r="L3" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M3" s="9">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="N3" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="170">
-        <f>General!K4</f>
-        <v>512</v>
-      </c>
-      <c r="C4" s="170">
-        <f>General!L4</f>
-        <v>30</v>
-      </c>
-      <c r="D4" s="170">
-        <v>140</v>
-      </c>
-      <c r="E4" s="170">
-        <f>EpocasMOR!C2</f>
-        <v>108</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="1"/>
-        <v>2910</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="5"/>
-        <v>4200</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="171">
-        <f>General!K5</f>
-        <v>200</v>
-      </c>
-      <c r="C5" s="171">
-        <f>General!L5</f>
-        <v>10</v>
-      </c>
-      <c r="D5" s="171">
-        <v>1244</v>
-      </c>
-      <c r="E5" s="171">
-        <f>EpocasMOR!D2</f>
-        <v>1184</v>
-      </c>
-      <c r="F5" s="9">
-        <f t="shared" si="0"/>
-        <v>1154</v>
-      </c>
-      <c r="G5" s="9">
-        <f t="shared" si="1"/>
-        <v>11530</v>
-      </c>
-      <c r="H5" s="9">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I5" s="9">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="5"/>
-        <v>12440</v>
-      </c>
-      <c r="L5" s="9">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M5" s="9">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="N5" s="9">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="170">
-        <f>General!K6</f>
-        <v>200</v>
-      </c>
-      <c r="C6" s="170">
-        <f>General!L6</f>
-        <v>10</v>
-      </c>
-      <c r="D6" s="170">
-        <v>853</v>
-      </c>
-      <c r="E6" s="170">
-        <f>EpocasMOR!E2</f>
-        <v>824</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>794</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="1"/>
-        <v>7930</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="5"/>
-        <v>8530</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="172">
-        <f>General!K7</f>
-        <v>512</v>
-      </c>
-      <c r="C7" s="172">
-        <f>General!L7</f>
-        <v>30</v>
-      </c>
-      <c r="D7" s="172">
-        <v>176</v>
-      </c>
-      <c r="E7" s="172">
-        <f>EpocasMOR!F2</f>
-        <v>166</v>
-      </c>
-      <c r="F7" s="12">
-        <f t="shared" si="0"/>
-        <v>156</v>
-      </c>
-      <c r="G7" s="12">
-        <f t="shared" si="1"/>
-        <v>4650</v>
-      </c>
-      <c r="H7" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="K7" s="12">
-        <f t="shared" si="5"/>
-        <v>5280</v>
-      </c>
-      <c r="L7" s="12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M7" s="12">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-      <c r="N7" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="173">
-        <f>General!K8</f>
-        <v>512</v>
-      </c>
-      <c r="C8" s="173">
-        <f>General!L8</f>
-        <v>30</v>
-      </c>
-      <c r="D8" s="173">
-        <v>251</v>
-      </c>
-      <c r="E8" s="173">
-        <f>EpocasMOR!G2</f>
-        <v>242</v>
-      </c>
-      <c r="F8" s="16">
-        <f t="shared" si="0"/>
-        <v>232</v>
-      </c>
-      <c r="G8" s="16">
-        <f t="shared" si="1"/>
-        <v>6930</v>
-      </c>
-      <c r="H8" s="16">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="16">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="J8" s="16">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="K8" s="16">
-        <f t="shared" si="5"/>
-        <v>7530</v>
-      </c>
-      <c r="L8" s="16">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="M8" s="16">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="N8" s="16">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="172">
-        <f>General!K9</f>
-        <v>200</v>
-      </c>
-      <c r="C9" s="172">
-        <f>General!L9</f>
-        <v>10</v>
-      </c>
-      <c r="D9" s="172">
-        <v>726</v>
-      </c>
-      <c r="E9" s="172">
-        <f>EpocasMOR!H2</f>
-        <v>697</v>
-      </c>
-      <c r="F9" s="12">
-        <f t="shared" si="0"/>
-        <v>667</v>
-      </c>
-      <c r="G9" s="12">
-        <f t="shared" si="1"/>
-        <v>6660</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="J9" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="12">
-        <f t="shared" si="5"/>
-        <v>7260</v>
-      </c>
-      <c r="L9" s="12">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="M9" s="12">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N9" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="173">
-        <f>General!K10</f>
-        <v>512</v>
-      </c>
-      <c r="C10" s="173">
-        <f>General!L10</f>
-        <v>30</v>
-      </c>
-      <c r="D10" s="173">
-        <v>378</v>
-      </c>
-      <c r="E10" s="173">
-        <f>EpocasMOR!I2</f>
-        <v>368</v>
-      </c>
-      <c r="F10" s="16">
-        <f t="shared" si="0"/>
-        <v>358</v>
-      </c>
-      <c r="G10" s="16">
-        <f t="shared" si="1"/>
-        <v>10710</v>
-      </c>
-      <c r="H10" s="16">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I10" s="16">
-        <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="J10" s="16">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="K10" s="16">
-        <f t="shared" si="5"/>
-        <v>11340</v>
-      </c>
-      <c r="L10" s="16">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M10" s="16">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="N10" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="172">
-        <f>General!K11</f>
-        <v>512</v>
-      </c>
-      <c r="C11" s="172">
-        <f>General!L11</f>
-        <v>30</v>
-      </c>
-      <c r="D11" s="172">
-        <v>610</v>
-      </c>
-      <c r="E11" s="172">
-        <f>EpocasMOR!J2</f>
-        <v>113</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" si="1"/>
-        <v>3060</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <f t="shared" si="5"/>
-        <v>18300</v>
-      </c>
-      <c r="L11" s="12">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="M11" s="12">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="N11" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="174">
-        <f>General!K12</f>
-        <v>512</v>
-      </c>
-      <c r="C12" s="174">
-        <f>General!L12</f>
-        <v>30</v>
-      </c>
-      <c r="D12" s="174">
-        <v>289</v>
-      </c>
-      <c r="E12" s="174">
-        <f>EpocasMOR!K2</f>
-        <v>276</v>
-      </c>
-      <c r="F12" s="19">
-        <f t="shared" si="0"/>
-        <v>266</v>
-      </c>
-      <c r="G12" s="19">
-        <f t="shared" si="1"/>
-        <v>7950</v>
-      </c>
-      <c r="H12" s="19">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I12" s="19">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="J12" s="19">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="K12" s="19">
-        <f t="shared" si="5"/>
-        <v>8670</v>
-      </c>
-      <c r="L12" s="19">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="M12" s="19">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="N12" s="19">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="175">
-        <f>General!K13</f>
-        <v>512</v>
-      </c>
-      <c r="C13" s="175">
-        <f>General!L13</f>
-        <v>30</v>
-      </c>
-      <c r="D13" s="175">
-        <v>410</v>
-      </c>
-      <c r="E13" s="175">
-        <f>EpocasMOR!L2</f>
-        <v>238</v>
-      </c>
-      <c r="F13" s="23">
-        <f t="shared" si="0"/>
-        <v>228</v>
-      </c>
-      <c r="G13" s="23">
-        <f t="shared" si="1"/>
-        <v>6810</v>
-      </c>
-      <c r="H13" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="23">
-        <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="J13" s="23">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="K13" s="23">
-        <f t="shared" si="5"/>
-        <v>12300</v>
-      </c>
-      <c r="L13" s="23">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M13" s="23">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="N13" s="23">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="174">
-        <f>General!K14</f>
-        <v>512</v>
-      </c>
-      <c r="C14" s="174">
-        <f>General!L14</f>
-        <v>30</v>
-      </c>
-      <c r="D14" s="174">
-        <v>220</v>
-      </c>
-      <c r="E14" s="174">
-        <f>EpocasMOR!M2</f>
-        <v>202</v>
-      </c>
-      <c r="F14" s="19">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-      <c r="G14" s="19">
-        <f t="shared" si="1"/>
-        <v>5730</v>
-      </c>
-      <c r="H14" s="19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I14" s="19">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="J14" s="19">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="K14" s="19">
-        <f t="shared" si="5"/>
-        <v>6600</v>
-      </c>
-      <c r="L14" s="19">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="19">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="N14" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="175">
-        <f>General!K15</f>
-        <v>512</v>
-      </c>
-      <c r="C15" s="175">
-        <f>General!L15</f>
-        <v>30</v>
-      </c>
-      <c r="D15" s="175">
-        <v>148</v>
-      </c>
-      <c r="E15" s="175">
-        <f>EpocasMOR!N2</f>
-        <v>139</v>
-      </c>
-      <c r="F15" s="23">
-        <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
-      <c r="G15" s="23">
-        <f t="shared" si="1"/>
-        <v>3840</v>
-      </c>
-      <c r="H15" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I15" s="23">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J15" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="23">
-        <f t="shared" si="5"/>
-        <v>4440</v>
-      </c>
-      <c r="L15" s="23">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M15" s="23">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="N15" s="23">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125"/>
-    <col min="2" max="2" width="8.5703125"/>
-    <col min="3" max="4" width="4.85546875"/>
-    <col min="5" max="5" width="8.28515625"/>
-    <col min="6" max="6" width="6.28515625"/>
-    <col min="7" max="7" width="10.5703125"/>
-    <col min="8" max="8" width="8.28515625"/>
-    <col min="9" max="9" width="21.42578125"/>
-    <col min="10" max="10" width="17.140625"/>
-    <col min="11" max="11" width="11.5703125"/>
-    <col min="12" max="12" width="10"/>
-    <col min="13" max="13" width="4.85546875"/>
-    <col min="14" max="14" width="6.140625"/>
-    <col min="15" max="15" width="4.28515625"/>
-    <col min="16" max="16" width="4.5703125"/>
-    <col min="17" max="17" width="6.140625"/>
-    <col min="18" max="18" width="4"/>
-    <col min="19" max="1025" width="8.28515625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6">
-        <v>59</v>
-      </c>
-      <c r="E2" s="7">
-        <v>107</v>
-      </c>
-      <c r="F2" s="7">
-        <v>29</v>
-      </c>
-      <c r="G2" s="6">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="8">
-        <v>200</v>
-      </c>
-      <c r="L2" s="6">
-        <v>10</v>
-      </c>
-      <c r="M2" s="5">
-        <v>1</v>
-      </c>
-      <c r="N2" s="5">
-        <v>56</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>1</v>
-      </c>
-      <c r="R2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>17</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="10">
-        <v>72</v>
-      </c>
-      <c r="E3" s="11">
-        <v>113</v>
-      </c>
-      <c r="F3" s="11">
-        <v>30</v>
-      </c>
-      <c r="G3" s="10">
-        <v>9</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="10">
-        <v>512</v>
-      </c>
-      <c r="L3" s="10">
-        <v>30</v>
-      </c>
-      <c r="M3" s="9">
-        <v>1</v>
-      </c>
-      <c r="N3" s="9">
-        <v>25</v>
-      </c>
-      <c r="O3" s="9">
-        <v>30</v>
-      </c>
-      <c r="P3" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>36</v>
-      </c>
-      <c r="R3" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6">
-        <v>78</v>
-      </c>
-      <c r="E4" s="7">
-        <v>102</v>
-      </c>
-      <c r="F4" s="7">
-        <v>28</v>
-      </c>
-      <c r="G4" s="6">
-        <v>5</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="6">
-        <v>512</v>
-      </c>
-      <c r="L4" s="6">
-        <v>30</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>48</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>10</v>
-      </c>
-      <c r="R4" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>44</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="10">
-        <v>65</v>
-      </c>
-      <c r="E5" s="11">
-        <v>107.5</v>
-      </c>
-      <c r="F5" s="11">
-        <v>30</v>
-      </c>
-      <c r="G5" s="10">
-        <v>9</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="8">
-        <v>200</v>
-      </c>
-      <c r="L5" s="10">
-        <v>10</v>
-      </c>
-      <c r="M5" s="9">
-        <v>3</v>
-      </c>
-      <c r="N5" s="9">
-        <v>15</v>
-      </c>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>20</v>
-      </c>
-      <c r="R5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>26</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6">
-        <v>67</v>
-      </c>
-      <c r="E6" s="7">
-        <v>115</v>
-      </c>
-      <c r="F6" s="7">
-        <v>30</v>
-      </c>
-      <c r="G6" s="6">
-        <v>11</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="8">
-        <v>200</v>
-      </c>
-      <c r="L6" s="6">
-        <v>10</v>
-      </c>
-      <c r="M6" s="5">
-        <v>2</v>
-      </c>
-      <c r="N6" s="5">
-        <v>15</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>19</v>
-      </c>
-      <c r="R6" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>9</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="13">
-        <v>68</v>
-      </c>
-      <c r="E7" s="14">
-        <v>81</v>
-      </c>
-      <c r="F7" s="15">
-        <v>28</v>
-      </c>
-      <c r="G7" s="13">
-        <v>5</v>
-      </c>
-      <c r="H7" s="13">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="13">
-        <v>512</v>
-      </c>
-      <c r="L7" s="13">
-        <v>30</v>
-      </c>
-      <c r="M7" s="12">
-        <v>1</v>
-      </c>
-      <c r="N7" s="12">
-        <v>17</v>
-      </c>
-      <c r="O7" s="12">
-        <v>0</v>
-      </c>
-      <c r="P7" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>28</v>
-      </c>
-      <c r="R7" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>10</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="17">
-        <v>63</v>
-      </c>
-      <c r="E8" s="18">
-        <v>90</v>
-      </c>
-      <c r="F8" s="18">
-        <v>29</v>
-      </c>
-      <c r="G8" s="17">
-        <v>9</v>
-      </c>
-      <c r="H8" s="17">
-        <v>1</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="17">
-        <v>512</v>
-      </c>
-      <c r="L8" s="17">
-        <v>30</v>
-      </c>
-      <c r="M8" s="16">
-        <v>1</v>
-      </c>
-      <c r="N8" s="16">
-        <v>55</v>
-      </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>6</v>
-      </c>
-      <c r="R8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>2</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="13">
-        <v>69</v>
-      </c>
-      <c r="E9" s="14">
-        <v>85</v>
-      </c>
-      <c r="F9" s="14">
-        <v>26</v>
-      </c>
-      <c r="G9" s="13">
-        <v>9</v>
-      </c>
-      <c r="H9" s="13">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="8">
-        <v>200</v>
-      </c>
-      <c r="L9" s="13">
-        <v>10</v>
-      </c>
-      <c r="M9" s="12">
-        <v>1</v>
-      </c>
-      <c r="N9" s="12">
-        <v>53</v>
-      </c>
-      <c r="O9" s="12">
-        <v>30</v>
-      </c>
-      <c r="P9" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>58</v>
-      </c>
-      <c r="R9" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>6</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="17">
-        <v>65</v>
-      </c>
-      <c r="E10" s="18">
-        <v>87</v>
-      </c>
-      <c r="F10" s="18">
-        <v>25</v>
-      </c>
-      <c r="G10" s="17">
-        <v>11</v>
-      </c>
-      <c r="H10" s="17">
-        <v>1</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="17">
-        <v>512</v>
-      </c>
-      <c r="L10" s="17">
-        <v>30</v>
-      </c>
-      <c r="M10" s="16">
-        <v>2</v>
-      </c>
-      <c r="N10" s="16">
-        <v>58</v>
-      </c>
-      <c r="O10" s="16">
-        <v>0</v>
-      </c>
-      <c r="P10" s="16">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>9</v>
-      </c>
-      <c r="R10" s="16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>83</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="13">
-        <v>73</v>
-      </c>
-      <c r="E11" s="14">
-        <v>96</v>
-      </c>
-      <c r="F11" s="14">
-        <v>29</v>
-      </c>
-      <c r="G11" s="13">
-        <v>8</v>
-      </c>
-      <c r="H11" s="13">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="13">
-        <v>512</v>
-      </c>
-      <c r="L11" s="13">
-        <v>30</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12">
-        <v>50</v>
-      </c>
-      <c r="O11" s="12">
-        <v>30</v>
-      </c>
-      <c r="P11" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>5</v>
-      </c>
-      <c r="R11" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>31</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="20">
-        <v>71</v>
-      </c>
-      <c r="E12" s="21">
-        <v>83.5</v>
-      </c>
-      <c r="F12" s="22">
-        <v>21</v>
-      </c>
-      <c r="G12" s="20">
-        <v>9</v>
-      </c>
-      <c r="H12" s="20">
-        <v>-1</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="20">
-        <v>512</v>
-      </c>
-      <c r="L12" s="20">
-        <v>30</v>
-      </c>
-      <c r="M12" s="19">
-        <v>2</v>
-      </c>
-      <c r="N12" s="19">
-        <v>12</v>
-      </c>
-      <c r="O12" s="19">
-        <v>0</v>
-      </c>
-      <c r="P12" s="19">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>25</v>
-      </c>
-      <c r="R12" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <v>5</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="24">
-        <v>61</v>
-      </c>
-      <c r="E13" s="25">
-        <v>114</v>
-      </c>
-      <c r="F13" s="25">
-        <v>28</v>
-      </c>
-      <c r="G13" s="24">
-        <v>9</v>
-      </c>
-      <c r="H13" s="24">
-        <v>-1</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="24">
-        <v>512</v>
-      </c>
-      <c r="L13" s="24">
-        <v>30</v>
-      </c>
-      <c r="M13" s="23">
-        <v>1</v>
-      </c>
-      <c r="N13" s="23">
-        <v>53</v>
-      </c>
-      <c r="O13" s="23">
-        <v>0</v>
-      </c>
-      <c r="P13" s="23">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="23">
-        <v>25</v>
-      </c>
-      <c r="R13" s="23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <v>25</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="20">
-        <v>50</v>
-      </c>
-      <c r="E14" s="21">
-        <v>117</v>
-      </c>
-      <c r="F14" s="21">
-        <v>30</v>
-      </c>
-      <c r="G14" s="20">
-        <v>22</v>
-      </c>
-      <c r="H14" s="20">
-        <v>-1</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="20">
-        <v>512</v>
-      </c>
-      <c r="L14" s="20">
-        <v>30</v>
-      </c>
-      <c r="M14" s="19">
-        <v>1</v>
-      </c>
-      <c r="N14" s="19">
-        <v>35</v>
-      </c>
-      <c r="O14" s="19">
-        <v>0</v>
-      </c>
-      <c r="P14" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>50</v>
-      </c>
-      <c r="R14" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
-        <v>99</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="27">
-        <v>71</v>
-      </c>
-      <c r="E15" s="28">
-        <v>111</v>
-      </c>
-      <c r="F15" s="28">
-        <v>28</v>
-      </c>
-      <c r="G15" s="27">
-        <v>9</v>
-      </c>
-      <c r="H15" s="27">
-        <v>-1</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="27">
-        <v>512</v>
-      </c>
-      <c r="L15" s="27">
-        <v>30</v>
-      </c>
-      <c r="M15" s="26">
-        <v>1</v>
-      </c>
-      <c r="N15" s="26">
-        <v>3</v>
-      </c>
-      <c r="O15" s="26">
-        <v>30</v>
-      </c>
-      <c r="P15" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="26">
-        <v>14</v>
-      </c>
-      <c r="R15" s="26">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="11.5703125"/>
-    <col min="8" max="13" width="11.5703125"/>
-    <col min="15" max="1025" width="11.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="176" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="176" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="176" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="176" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="176" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="176" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="7">
-        <v>2190</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="7">
-        <v>25830</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="178">
-        <f>B2/E2</f>
-        <v>8.4785133565621368E-2</v>
-      </c>
-      <c r="I2" s="7">
-        <v>200</v>
-      </c>
-      <c r="K2">
-        <f>I2*E2</f>
-        <v>5166000</v>
-      </c>
-      <c r="L2">
-        <f>I2*B2</f>
-        <v>438000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="11">
-        <v>3810</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="11">
-        <v>30960</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="178">
-        <f>B3/E3</f>
-        <v>0.12306201550387597</v>
-      </c>
-      <c r="I3" s="11">
-        <v>512</v>
-      </c>
-      <c r="K3">
-        <f>I3*E3</f>
-        <v>15851520</v>
-      </c>
-      <c r="L3">
-        <f>I3*B3</f>
-        <v>1950720</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="177" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="7">
-        <v>5130</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="7">
-        <v>27210</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="178">
-        <f>B4/E4</f>
-        <v>0.18853362734288864</v>
-      </c>
-      <c r="I4" s="7">
-        <v>512</v>
-      </c>
-      <c r="K4">
-        <f>I4*E4</f>
-        <v>13931520</v>
-      </c>
-      <c r="L4">
-        <f>I4*B4</f>
-        <v>2626560</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="179" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1650</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="11">
-        <v>32790</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="178">
-        <f>B5/E5</f>
-        <v>5.0320219579139978E-2</v>
-      </c>
-      <c r="I5" s="11">
-        <v>200</v>
-      </c>
-      <c r="K5">
-        <f>I5*E5</f>
-        <v>6558000</v>
-      </c>
-      <c r="L5">
-        <f>I5*B5</f>
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2850</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="7">
-        <v>24660</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="178">
-        <f>B6/E6</f>
-        <v>0.11557177615571776</v>
-      </c>
-      <c r="I6" s="7">
-        <v>200</v>
-      </c>
-      <c r="K6">
-        <f>I6*E6</f>
-        <v>4932000</v>
-      </c>
-      <c r="L6">
-        <f>I6*B6</f>
-        <v>570000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="180" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="181">
-        <f>AVERAGE(B2:B6)</f>
-        <v>3126</v>
-      </c>
-      <c r="C7" s="181"/>
-      <c r="E7" s="181">
-        <f>AVERAGE(E2:E6)</f>
-        <v>28290</v>
-      </c>
-      <c r="F7" s="181"/>
-      <c r="H7" s="178">
-        <f>AVERAGE(H2:H6)</f>
-        <v>0.11245455442944874</v>
-      </c>
-      <c r="I7" s="182"/>
-      <c r="K7">
-        <f>I7*E7</f>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f>I7*B7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="180" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="181">
-        <f>STDEV(B2:B6)</f>
-        <v>1379.7391057732618</v>
-      </c>
-      <c r="C8" s="181"/>
-      <c r="E8" s="181">
-        <f>STDEV(E2:E6)</f>
-        <v>3455.9296867847297</v>
-      </c>
-      <c r="F8" s="181"/>
-      <c r="H8" s="178">
-        <f>STDEV(H2:H6)</f>
-        <v>5.1323807963104769E-2</v>
-      </c>
-      <c r="I8" s="182"/>
-      <c r="K8">
-        <f>I8*E8</f>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f>I8*B8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="180" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="181">
-        <f>MEDIAN(B2:B6)</f>
-        <v>2850</v>
-      </c>
-      <c r="C9" s="181"/>
-      <c r="E9" s="181">
-        <f>MEDIAN(E2:E6)</f>
-        <v>27210</v>
-      </c>
-      <c r="F9" s="181"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="182"/>
-      <c r="K9">
-        <f>I9*E9</f>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f>I9*B9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="183" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="14">
-        <v>3960</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="14">
-        <v>28320</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="178">
-        <f>B10/E10</f>
-        <v>0.13983050847457626</v>
-      </c>
-      <c r="I10" s="14">
-        <v>512</v>
-      </c>
-      <c r="K10">
-        <f>I10*E10</f>
-        <v>14499840</v>
-      </c>
-      <c r="L10">
-        <f>I10*B10</f>
-        <v>2027520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="184" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="18">
-        <v>2970</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="18">
-        <v>25380</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="178">
-        <f>B11/E11</f>
-        <v>0.11702127659574468</v>
-      </c>
-      <c r="I11" s="18">
-        <v>512</v>
-      </c>
-      <c r="K11">
-        <f>I11*E11</f>
-        <v>12994560</v>
-      </c>
-      <c r="L11">
-        <f>I11*B11</f>
-        <v>1520640</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="183" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="14">
-        <v>1140</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="14">
-        <v>12420</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="178">
-        <f>B12/E12</f>
-        <v>9.1787439613526575E-2</v>
-      </c>
-      <c r="I12" s="14">
-        <v>200</v>
-      </c>
-      <c r="K12">
-        <f>I12*E12</f>
-        <v>2484000</v>
-      </c>
-      <c r="L12">
-        <f>I12*B12</f>
-        <v>228000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="184" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="18">
-        <v>990</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="18">
-        <v>36210</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="178">
-        <f>B13/E13</f>
-        <v>2.7340513670256836E-2</v>
-      </c>
-      <c r="I13" s="18">
-        <v>512</v>
-      </c>
-      <c r="K13">
-        <f>I13*E13</f>
-        <v>18539520</v>
-      </c>
-      <c r="L13">
-        <f>I13*B13</f>
-        <v>506880</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="183" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="14">
-        <v>1230</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="14">
-        <v>28710</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="178">
-        <f>B14/E14</f>
-        <v>4.2842215256008356E-2</v>
-      </c>
-      <c r="I14" s="14">
-        <v>512</v>
-      </c>
-      <c r="K14">
-        <f>I14*E14</f>
-        <v>14699520</v>
-      </c>
-      <c r="L14">
-        <f>I14*B14</f>
-        <v>629760</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="185" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="186">
-        <f>AVERAGE(B10:B14)</f>
-        <v>2058</v>
-      </c>
-      <c r="C15" s="186"/>
-      <c r="E15" s="186">
-        <f>AVERAGE(E10:E14)</f>
-        <v>26208</v>
-      </c>
-      <c r="F15" s="186"/>
-      <c r="H15" s="178">
-        <f>AVERAGE(H10:H14)</f>
-        <v>8.3764390722022547E-2</v>
-      </c>
-      <c r="I15" s="187"/>
-      <c r="K15">
-        <f>I15*E15</f>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f>I15*B15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="185" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="186">
-        <f>STDEV(B10:B14)</f>
-        <v>1334.0052473659914</v>
-      </c>
-      <c r="C16" s="186"/>
-      <c r="E16" s="186">
-        <f>STDEV(E10:E14)</f>
-        <v>8682.6706720916227</v>
-      </c>
-      <c r="F16" s="186"/>
-      <c r="H16" s="178">
-        <f>STDEV(H10:H14)</f>
-        <v>4.7885482345384416E-2</v>
-      </c>
-      <c r="I16" s="187"/>
-      <c r="K16">
-        <f>I16*E16</f>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>I16*B16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="185" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="186">
-        <f>MEDIAN(B10:B14)</f>
-        <v>1230</v>
-      </c>
-      <c r="C17" s="186"/>
-      <c r="E17" s="186">
-        <f>MEDIAN(E10:E14)</f>
-        <v>28320</v>
-      </c>
-      <c r="F17" s="186"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="187"/>
-      <c r="K17">
-        <f>I17*E17</f>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f>I17*B17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="188" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="21">
-        <v>71</v>
-      </c>
-      <c r="C18" s="21">
-        <v>9</v>
-      </c>
-      <c r="E18" s="21">
-        <v>71</v>
-      </c>
-      <c r="F18" s="21">
-        <v>9</v>
-      </c>
-      <c r="H18" s="178">
-        <f>B18/E18</f>
-        <v>1</v>
-      </c>
-      <c r="I18" s="21">
-        <v>512</v>
-      </c>
-      <c r="K18">
-        <f>I18*E18</f>
-        <v>36352</v>
-      </c>
-      <c r="L18">
-        <f>I18*B18</f>
-        <v>36352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="189" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="25">
-        <v>61</v>
-      </c>
-      <c r="C19" s="25">
-        <v>9</v>
-      </c>
-      <c r="E19" s="25">
-        <v>61</v>
-      </c>
-      <c r="F19" s="25">
-        <v>9</v>
-      </c>
-      <c r="H19" s="178">
-        <f>B19/E19</f>
-        <v>1</v>
-      </c>
-      <c r="I19" s="25">
-        <v>512</v>
-      </c>
-      <c r="K19">
-        <f>I19*E19</f>
-        <v>31232</v>
-      </c>
-      <c r="L19">
-        <f>I19*B19</f>
-        <v>31232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="188" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="21">
-        <v>50</v>
-      </c>
-      <c r="C20" s="21">
-        <v>22</v>
-      </c>
-      <c r="E20" s="21">
-        <v>50</v>
-      </c>
-      <c r="F20" s="21">
-        <v>22</v>
-      </c>
-      <c r="H20" s="178">
-        <f>B20/E20</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" t="e">
-        <f>I20*E20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L20" t="e">
-        <f>I20*B20</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="190" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="191">
-        <v>71</v>
-      </c>
-      <c r="C21" s="191">
-        <v>9</v>
-      </c>
-      <c r="E21" s="191">
-        <v>71</v>
-      </c>
-      <c r="F21" s="191">
-        <v>9</v>
-      </c>
-      <c r="H21" s="178">
-        <f>B21/E21</f>
-        <v>1</v>
-      </c>
-      <c r="I21" s="191">
-        <v>512</v>
-      </c>
-      <c r="K21">
-        <f>I21*E21</f>
-        <v>36352</v>
-      </c>
-      <c r="L21">
-        <f>I21*B21</f>
-        <v>36352</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125"/>
-    <col min="2" max="2" width="5.42578125"/>
-    <col min="3" max="3" width="5.85546875"/>
-    <col min="5" max="5" width="7.140625"/>
-    <col min="6" max="6" width="11.42578125"/>
-    <col min="7" max="7" width="9.28515625"/>
-    <col min="8" max="8" width="20.5703125"/>
-    <col min="9" max="9" width="18.28515625"/>
-    <col min="10" max="10" width="12.28515625"/>
-    <col min="11" max="11" width="11"/>
-    <col min="12" max="12" width="8.28515625" style="168"/>
-    <col min="13" max="13" width="7.5703125" style="168"/>
-    <col min="14" max="1025" width="11.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="168" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="168" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="6">
-        <v>59</v>
-      </c>
-      <c r="D2" s="7">
-        <v>107</v>
-      </c>
-      <c r="E2" s="7">
-        <v>29</v>
-      </c>
-      <c r="F2" s="6">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="8">
-        <v>200</v>
-      </c>
-      <c r="K2" s="6">
-        <v>10</v>
-      </c>
-      <c r="L2" s="192">
-        <v>25830</v>
-      </c>
-      <c r="M2" s="192">
-        <v>2190</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N11" si="0">M2/L2</f>
-        <v>8.4785133565621368E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="10">
-        <v>72</v>
-      </c>
-      <c r="D3" s="11">
-        <v>113</v>
-      </c>
-      <c r="E3" s="11">
-        <v>30</v>
-      </c>
-      <c r="F3" s="10">
-        <v>9</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="10">
-        <v>512</v>
-      </c>
-      <c r="K3" s="10">
-        <v>30</v>
-      </c>
-      <c r="L3" s="193">
-        <v>30960</v>
-      </c>
-      <c r="M3" s="193">
-        <v>3810</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="0"/>
-        <v>0.12306201550387597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="6">
-        <v>78</v>
-      </c>
-      <c r="D4" s="7">
-        <v>102</v>
-      </c>
-      <c r="E4" s="7">
-        <v>28</v>
-      </c>
-      <c r="F4" s="6">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="6">
-        <v>512</v>
-      </c>
-      <c r="K4" s="6">
-        <v>30</v>
-      </c>
-      <c r="L4" s="192">
-        <v>27210</v>
-      </c>
-      <c r="M4" s="192">
-        <v>5130</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>0.18853362734288864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="10">
-        <v>65</v>
-      </c>
-      <c r="D5" s="11">
-        <v>107.5</v>
-      </c>
-      <c r="E5" s="11">
-        <v>30</v>
-      </c>
-      <c r="F5" s="10">
-        <v>9</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="8">
-        <v>200</v>
-      </c>
-      <c r="K5" s="10">
-        <v>10</v>
-      </c>
-      <c r="L5" s="193">
-        <v>32790</v>
-      </c>
-      <c r="M5" s="193">
-        <v>1650</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>5.0320219579139978E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6">
-        <v>67</v>
-      </c>
-      <c r="D6" s="7">
-        <v>115</v>
-      </c>
-      <c r="E6" s="7">
-        <v>30</v>
-      </c>
-      <c r="F6" s="6">
-        <v>11</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="8">
-        <v>200</v>
-      </c>
-      <c r="K6" s="6">
-        <v>10</v>
-      </c>
-      <c r="L6" s="192">
-        <v>24660</v>
-      </c>
-      <c r="M6" s="192">
-        <v>2850</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0.11557177615571776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="13">
-        <v>68</v>
-      </c>
-      <c r="D7" s="14">
-        <v>81</v>
-      </c>
-      <c r="E7" s="15">
-        <v>28</v>
-      </c>
-      <c r="F7" s="13">
-        <v>5</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="13">
-        <v>512</v>
-      </c>
-      <c r="K7" s="13">
-        <v>30</v>
-      </c>
-      <c r="L7" s="194">
-        <v>28320</v>
-      </c>
-      <c r="M7" s="194">
-        <v>3960</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>0.13983050847457626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="17">
-        <v>63</v>
-      </c>
-      <c r="D8" s="18">
-        <v>90</v>
-      </c>
-      <c r="E8" s="18">
-        <v>29</v>
-      </c>
-      <c r="F8" s="17">
-        <v>9</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="17">
-        <v>512</v>
-      </c>
-      <c r="K8" s="17">
-        <v>30</v>
-      </c>
-      <c r="L8" s="195">
-        <v>25380</v>
-      </c>
-      <c r="M8" s="195">
-        <v>2970</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>0.11702127659574468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="13">
-        <v>69</v>
-      </c>
-      <c r="D9" s="14">
-        <v>85</v>
-      </c>
-      <c r="E9" s="14">
-        <v>26</v>
-      </c>
-      <c r="F9" s="13">
-        <v>9</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="8">
-        <v>200</v>
-      </c>
-      <c r="K9" s="13">
-        <v>10</v>
-      </c>
-      <c r="L9" s="194">
-        <v>12420</v>
-      </c>
-      <c r="M9" s="194">
-        <v>1140</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>9.1787439613526575E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="17">
-        <v>65</v>
-      </c>
-      <c r="D10" s="18">
-        <v>87</v>
-      </c>
-      <c r="E10" s="18">
-        <v>25</v>
-      </c>
-      <c r="F10" s="17">
-        <v>11</v>
-      </c>
-      <c r="G10" s="17">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="17">
-        <v>512</v>
-      </c>
-      <c r="K10" s="17">
-        <v>30</v>
-      </c>
-      <c r="L10" s="195">
-        <v>36210</v>
-      </c>
-      <c r="M10" s="195">
-        <v>990</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>2.7340513670256836E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="13">
-        <v>73</v>
-      </c>
-      <c r="D11" s="14">
-        <v>96</v>
-      </c>
-      <c r="E11" s="14">
-        <v>29</v>
-      </c>
-      <c r="F11" s="13">
-        <v>8</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="13">
-        <v>512</v>
-      </c>
-      <c r="K11" s="13">
-        <v>30</v>
-      </c>
-      <c r="L11" s="194">
-        <v>28710</v>
-      </c>
-      <c r="M11" s="194">
-        <v>1230</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>4.2842215256008356E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="20">
-        <v>71</v>
-      </c>
-      <c r="D12" s="21">
-        <v>83.5</v>
-      </c>
-      <c r="E12" s="22">
-        <v>21</v>
-      </c>
-      <c r="F12" s="20">
-        <v>9</v>
-      </c>
-      <c r="G12" s="20">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="20">
-        <v>512</v>
-      </c>
-      <c r="K12" s="20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="24">
-        <v>61</v>
-      </c>
-      <c r="D13" s="25">
-        <v>114</v>
-      </c>
-      <c r="E13" s="25">
-        <v>28</v>
-      </c>
-      <c r="F13" s="24">
-        <v>9</v>
-      </c>
-      <c r="G13" s="24">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="24">
-        <v>512</v>
-      </c>
-      <c r="K13" s="24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="20">
-        <v>50</v>
-      </c>
-      <c r="D14" s="21">
-        <v>117</v>
-      </c>
-      <c r="E14" s="21">
-        <v>30</v>
-      </c>
-      <c r="F14" s="20">
-        <v>22</v>
-      </c>
-      <c r="G14" s="20">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="20">
-        <v>512</v>
-      </c>
-      <c r="K14" s="20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="27">
-        <v>71</v>
-      </c>
-      <c r="D15" s="28">
-        <v>111</v>
-      </c>
-      <c r="E15" s="28">
-        <v>28</v>
-      </c>
-      <c r="F15" s="27">
-        <v>9</v>
-      </c>
-      <c r="G15" s="27">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="27">
-        <v>512</v>
-      </c>
-      <c r="K15" s="27">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>